--- a/outputs/fft-p__Bacteroidota.xlsx
+++ b/outputs/fft-p__Bacteroidota.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" tabRatio="600" firstSheet="5" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="11" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15880" windowWidth="28800" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="g__Prevotella-LSVM" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="g__Prevotella-LSVM-30" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="g__Ruminococcus_E-LSVM-30" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="f__Lachnospiracea-LSVM-30" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="g__RC9-LSVM" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -110,24 +111,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3958,7 +3959,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5064,7 +5065,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -6860,7 +6861,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -10846,7 +10847,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -12132,7 +12133,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -16638,7 +16639,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -18729,7 +18730,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -23375,7 +23376,1462 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>c__Chlorobia</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>c__Ignavibacteria</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>c__Rhodothermia</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>c__UBA10030</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>RUG722</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.921267337642527</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.543886282476776</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3.503870992281426</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-7.108820905620388</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-15.1090314760885</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>RUG826</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.812845664972815</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-7.201135923589465</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-6.212820948488608</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-5.175150860484323</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-18.1766662209686</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>RUG487</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.606544604832794</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-7.081210660956771</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5.265412681479853</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-4.587115153402355</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-10.73044972559311</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>RUG478</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.761857772791419</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5.592104952612657</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-2.540676421541666</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-7.946706752906193</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-14.24485174212816</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>RUG352</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.731041628114529</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-6.267230507345827</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-6.064356819692098</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-2.154112441444322</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-8.342162103626604</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>RUG629</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.058839472350324</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-6.314043426905143</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-3.401126308477231</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-7.382563286109164</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-13.90947080504691</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>RUG523</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.997761525923938</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-9.157095461677079</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-5.770719280123456</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-5.235252601726907</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-14.26067185642229</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>RUG510</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.167963635599433</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.250722573865837</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-4.425164635928873</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4.030793903400251</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-6.199828860131686</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>RUG717</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.775269866105157</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-7.727390589688238</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-4.854700196495602</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.757668009213629</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-10.91733123003018</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>RUG679</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.024361246855623</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-3.577437392580931</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5.589178554862006</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-4.338728291535244</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-10.32502346514834</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>RUG667</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.7746990464323</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-8.606116567304852</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-5.746831652553128</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-2.807016232190521</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-14.59379722817097</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>RUG645</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.831774648810429</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-5.357367625876115</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-3.910601103126766</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-4.782764616053832</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-9.213455797596424</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>RUG625</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.052729768863626</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-6.017744660646223</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-4.388366050725694</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-3.492758300281165</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-10.84127532032834</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>RUG331</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.837325813207317</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-9.37812838506345</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-5.648185866942819</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-6.023592185068577</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-13.19217348227213</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>RUG579</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.225631614535295</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-4.401440916566319</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-4.611839518929887</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-4.379055552993961</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-6.345628745340967</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>RUG193</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3.046936664701298</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-6.284061334357282</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-8.122705073911577</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-6.729230923284114</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-15.06129894704866</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>RUG583</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2.26310816895687</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-4.671767367425857</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-5.107465444668641</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-4.084052522845796</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-10.9121643641707</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>RUG564</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.476634690437624</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-4.809706578496019</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-4.042947004985042</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-5.270320026670494</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-6.852680084881841</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>RUG489</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2.431989090860818</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-3.052468312223343</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-4.562029392249192</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-6.578245799900243</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-13.19581159828962</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>RUG345</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.712730948169648</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-7.261472172100444</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-6.652652437279825</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.98778803402525</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-10.98192827359736</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>RUG421</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.810059368160112</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-8.012168001538369</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-6.126629092417258</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-5.04927134677744</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-14.51014953814066</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>RUG392</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2.792518622440425</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-6.112359905302541</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-7.063145205333406</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-3.872419004672876</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-12.01058448800636</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>RUG250</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.058367497609574</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-8.434497458027925</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-5.767738895962603</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-5.775511790730444</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-10.12072711442319</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>RUG790</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2.377917484262475</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-4.461841962411617</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-4.210309005171445</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-5.721061542734066</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-4.837673400388513</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>RUG470</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2.270889547214498</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.044028004896818</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-7.34145529517177</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-3.390007089633009</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-8.336962343030454</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>RUG253</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3.118905650680457</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-5.410441807222283</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-8.122648261480059</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-5.831305649857147</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-22.62752465908206</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>RUG590</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.90005277194168</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-9.001932438565731</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-6.111438563964944</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-3.115736495045363</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-14.74646679004763</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>RUG784</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3.746513613968619</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-5.901603391933912</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-4.596012328082083</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-7.48961765926432</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-17.4399565835492</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>RUG818</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.299705721259499</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-6.347418282176155</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-6.05897008061094</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-2.351581479602199</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-13.33431264608078</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>RUG257</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2.996030013461053</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-5.307250016998665</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-7.108760165143001</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-4.680287960174222</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-10.40385386616962</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>RUG720</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2.167669317280818</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-6.887775067167798</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-7.050474902691069</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-3.456867011233639</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-13.82567848160981</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>RUG634</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2.766960823531694</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-8.442497208236876</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-5.167743678580909</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-6.263516465592468</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-10.43046409657897</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>RUG205</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3.236574360966519</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-4.593477750466401</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-3.099796760008874</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-8.050251261040982</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-8.549629249150069</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>RUG481</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.792751643632668</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-5.834305857294197</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-4.508539463830775</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-4.094999505553279</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-8.095653388468023</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>RUG615</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.610634222145012</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-5.411819321747893</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-2.383152121604904</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-6.845096783075424</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-14.57876258783672</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>RUG173</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2.854117375104198</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-9.143459445574969</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-6.36191958800709</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-3.937227624196212</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-15.90824854712494</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>RUG142</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.482546454040939</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-3.953020702336422</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-4.113363110133802</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-4.341082846273616</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-5.692243405118982</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>hRUG909</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2.343396826686665</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-5.470434536567725</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-4.293923664144847</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-5.074202987173512</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-7.374706871648058</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>RUG395</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2.717500453554059</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-6.769962350136218</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-5.899937147116827</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-6.27345601248373</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-13.76188261326545</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>RUG406</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2.762710564154535</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-5.350835840655744</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-5.537310749884999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-4.289798931886933</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-14.97936299147379</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>RUG387</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>4.146008491979456</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-3.084713179064544</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-5.7539040650608</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-8.106857173290152</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-16.36606600368687</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>RUG553</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2.863977971597834</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-6.425023772274374</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-2.998743705054938</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-5.931090055247911</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-16.04121503525637</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>hRUG873</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.392453271787501</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-3.386986628932773</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-3.655725099322612</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-4.180547981208212</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-4.298212701772402</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>RUG568</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1.482015402243518</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-4.370707658671596</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-4.964869428836264</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-4.314926136737086</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-4.994924869817718</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>RUG707</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1.825784641635729</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-2.812085387012853</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-5.190024346410483</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-5.177501206467657</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-7.270880785769535</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>RUG528</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.20796494022564</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-4.989931671928186</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-5.540442683822999</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-3.007997597622042</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-10.55010314391417</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>RUG603</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1.878395834015832</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-3.413396130145707</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-5.352184566444843</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-4.653941441019512</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-9.712721602226393</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>RUG436</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1.395566099525873</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-4.158576527920775</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-3.37554183447524</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-3.633071756743521</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-5.139577662250756</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>RUG773</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.970449879744255</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-7.287125020792018</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-4.726185766256048</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-3.681766170152144</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-10.28071779066921</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>RUG619</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2.14465385584364</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-8.007627007168631</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-5.683983305713035</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-4.346268739817909</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-15.55155960108856</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>RUG386</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1.388475607591281</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-4.739365274147559</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-3.464392367968578</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-4.575843103970938</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-7.749799235168383</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>RUG544</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.283442531286487</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-5.977047759378179</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-8.589709525545354</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-4.22903968710609</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-14.64176722970495</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -24371,7 +25827,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -27959,7 +29415,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -29576,7 +31032,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -30682,7 +32138,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -34548,7 +36004,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -38534,7 +39990,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -40330,7 +41786,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -44196,6 +45652,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/outputs/fft-p__Bacteroidota.xlsx
+++ b/outputs/fft-p__Bacteroidota.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE0932A-8CF2-734A-9CCF-E0780EA90D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7E2447-3C3E-F448-B177-DFE04B2588F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g__Prevotella-LSVM" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="g__RC9-LSVM-30" sheetId="16" r:id="rId18"/>
     <sheet name="g__Ruminococcus_E-LSVM-30" sheetId="13" r:id="rId19"/>
     <sheet name="f__Lachnospiracea-LSVM-30" sheetId="14" r:id="rId20"/>
+    <sheet name="statistics" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4583" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4592" uniqueCount="421">
   <si>
     <t>c__Bacteroidia</t>
   </si>
@@ -1276,6 +1277,33 @@
   <si>
     <t>reject</t>
   </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>partially correct</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>g__Prevotella</t>
+  </si>
+  <si>
+    <t>f__Lachnospiraceae</t>
+  </si>
+  <si>
+    <t>g__RC9</t>
+  </si>
+  <si>
+    <t>g__Ruminococcues_E</t>
+  </si>
+  <si>
+    <t>g__C941</t>
+  </si>
+  <si>
+    <t>alpha = 30</t>
+  </si>
 </sst>
 </file>
 
@@ -1394,7 +1422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1408,6 +1436,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11163,7 +11192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -18269,7 +18298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -23046,7 +23075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A23" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -24593,7 +24622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0"/>
+    <sheetView topLeftCell="A52" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -27152,7 +27181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0"/>
+    <sheetView topLeftCell="A104" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -30983,6 +31012,97 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3A7C85-2F41-8140-9666-2F9597A550AA}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.952755905511811</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4.7244094488188976E-2</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.91603053435114501</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <v>8.3969465648854963E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.91379310344827591</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>8.6206896551724144E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.91666666666666674</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -41408,7 +41528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/outputs/fft-p__Bacteroidota.xlsx
+++ b/outputs/fft-p__Bacteroidota.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7E2447-3C3E-F448-B177-DFE04B2588F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF4B0B9-88B0-FF4E-987D-6D4581EDE377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g__Prevotella-LSVM" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="g__RC9-LSVM-30" sheetId="16" r:id="rId18"/>
     <sheet name="g__Ruminococcus_E-LSVM-30" sheetId="13" r:id="rId19"/>
     <sheet name="f__Lachnospiracea-LSVM-30" sheetId="14" r:id="rId20"/>
-    <sheet name="statistics" sheetId="21" r:id="rId21"/>
+    <sheet name="statistics-30" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
